--- a/data/trans_orig/CLASESOCIAL_Hogar_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R2-Clase-trans_orig.xlsx
@@ -2604,19 +2604,19 @@
         <v>648756</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>602195</v>
+        <v>606639</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>691260</v>
+        <v>695937</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1983847212091555</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.184146777522632</v>
+        <v>0.1855057302283812</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2113822699321857</v>
+        <v>0.2128124386199147</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1777</v>
@@ -2625,19 +2625,19 @@
         <v>1817511</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1757984</v>
+        <v>1761370</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1875202</v>
+        <v>1878090</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5380239091029176</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.52040256512419</v>
+        <v>0.521404779100636</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5551016050407737</v>
+        <v>0.5559563848581744</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2423</v>
@@ -2646,19 +2646,19 @@
         <v>2466267</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2394650</v>
+        <v>2382493</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2544317</v>
+        <v>2546701</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3709613016211026</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3601890327768135</v>
+        <v>0.3583604102548092</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3827010289644281</v>
+        <v>0.3830597388307995</v>
       </c>
     </row>
     <row r="41">
@@ -2675,19 +2675,19 @@
         <v>1238334</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1184453</v>
+        <v>1187668</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1292914</v>
+        <v>1296999</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3786735374054787</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3621968929453995</v>
+        <v>0.3631802343613117</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.395363478928649</v>
+        <v>0.3966128429429365</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>694</v>
@@ -2696,19 +2696,19 @@
         <v>714285</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>667761</v>
+        <v>663507</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>765305</v>
+        <v>760636</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2114443798158261</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1976720105631679</v>
+        <v>0.1964128973838788</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2265472407222019</v>
+        <v>0.2251653020781908</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1918</v>
@@ -2717,19 +2717,19 @@
         <v>1952620</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1877374</v>
+        <v>1883791</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2020753</v>
+        <v>2032151</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2937014929810288</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2823834888461302</v>
+        <v>0.2833486952446791</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3039496583396399</v>
+        <v>0.3056640736485651</v>
       </c>
     </row>
     <row r="42">
@@ -2746,19 +2746,19 @@
         <v>542389</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>497538</v>
+        <v>500139</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>583059</v>
+        <v>587001</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1658586612114389</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1521435694489156</v>
+        <v>0.1529387358371154</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1782951467433853</v>
+        <v>0.1795005022165331</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>164</v>
@@ -2767,19 +2767,19 @@
         <v>167782</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>143649</v>
+        <v>144082</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>195089</v>
+        <v>194677</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04966720613773127</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04252333532440263</v>
+        <v>0.04265142330355835</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05775068249699374</v>
+        <v>0.05762866475493269</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>696</v>
@@ -2788,19 +2788,19 @@
         <v>710171</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>662895</v>
+        <v>659724</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>764623</v>
+        <v>764385</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1068197613893694</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09970873683464608</v>
+        <v>0.0992317676837436</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1150101231109863</v>
+        <v>0.1149743197103804</v>
       </c>
     </row>
     <row r="43">
@@ -2817,19 +2817,19 @@
         <v>366934</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>329434</v>
+        <v>328264</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>402205</v>
+        <v>405808</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.112205753879732</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1007385357954809</v>
+        <v>0.1003808368423775</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1229912155169687</v>
+        <v>0.1240932094269304</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>363</v>
@@ -2838,19 +2838,19 @@
         <v>371865</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>338291</v>
+        <v>336154</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>412466</v>
+        <v>408665</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1100802864128136</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1001415546490606</v>
+        <v>0.09950913972909511</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1220990221125172</v>
+        <v>0.1209740530786943</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>713</v>
@@ -2859,19 +2859,19 @@
         <v>738799</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>689578</v>
+        <v>690485</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>788593</v>
+        <v>792597</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1111257668809044</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1037222759736088</v>
+        <v>0.1038586732222897</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1186154340965309</v>
+        <v>0.1192177924142108</v>
       </c>
     </row>
     <row r="44">
@@ -2888,19 +2888,19 @@
         <v>473776</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>436848</v>
+        <v>431490</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>517742</v>
+        <v>515544</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1448773262941949</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1335849760670767</v>
+        <v>0.1319465029270636</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1583215880293292</v>
+        <v>0.1576496145042151</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>298</v>
@@ -2909,19 +2909,19 @@
         <v>306680</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>273179</v>
+        <v>274460</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>342484</v>
+        <v>341997</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09078421853071142</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08086717934426185</v>
+        <v>0.08124616787906883</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1013828426995631</v>
+        <v>0.1012387987283136</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>753</v>
@@ -2930,19 +2930,19 @@
         <v>780457</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>730146</v>
+        <v>730605</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>832971</v>
+        <v>834189</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1173916771275948</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.109824258788533</v>
+        <v>0.1098932960248461</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1252904875461933</v>
+        <v>0.1254736918579868</v>
       </c>
     </row>
     <row r="45">
@@ -5136,19 +5136,19 @@
         <v>777478</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>728019</v>
+        <v>729099</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>826454</v>
+        <v>831126</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2272059299690968</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2127522125209493</v>
+        <v>0.2130679118841298</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.241518263451437</v>
+        <v>0.242883765274617</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1747</v>
@@ -5157,19 +5157,19 @@
         <v>1870873</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1811086</v>
+        <v>1804860</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1934083</v>
+        <v>1932163</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5269879166823536</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5101472057944436</v>
+        <v>0.5083934611281142</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5447930230643241</v>
+        <v>0.5442520920374032</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2499</v>
@@ -5178,19 +5178,19 @@
         <v>2648351</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2566829</v>
+        <v>2566256</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2736637</v>
+        <v>2729197</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3798534095438652</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3681606573942213</v>
+        <v>0.368078457265704</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.392516278648103</v>
+        <v>0.3914491298898123</v>
       </c>
     </row>
     <row r="41">
@@ -5207,19 +5207,19 @@
         <v>1159009</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1094578</v>
+        <v>1099933</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1218424</v>
+        <v>1217024</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3387024500773707</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3198734597570298</v>
+        <v>0.32143822943869</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3560654609622114</v>
+        <v>0.3556563094937278</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>711</v>
@@ -5228,19 +5228,19 @@
         <v>766657</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>712801</v>
+        <v>714672</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>818800</v>
+        <v>818033</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2159522300577737</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2007818560882123</v>
+        <v>0.2013090287204862</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2306397327275924</v>
+        <v>0.2304237291231089</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1794</v>
@@ -5249,19 +5249,19 @@
         <v>1925667</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1846190</v>
+        <v>1844511</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2003513</v>
+        <v>1992924</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2761986555409688</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2647992418584569</v>
+        <v>0.2645585016649836</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2873642328002902</v>
+        <v>0.2858453515032263</v>
       </c>
     </row>
     <row r="42">
@@ -5278,19 +5278,19 @@
         <v>629415</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>582457</v>
+        <v>580669</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>682925</v>
+        <v>675166</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1839367134303665</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1702141076529861</v>
+        <v>0.1696914221048689</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1995741962252868</v>
+        <v>0.1973066577229156</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>244</v>
@@ -5299,19 +5299,19 @@
         <v>260129</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>229418</v>
+        <v>232547</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>293971</v>
+        <v>295695</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07327331636788599</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06462247463503312</v>
+        <v>0.06550388216456894</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08280578803700396</v>
+        <v>0.08329150511061195</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>835</v>
@@ -5320,19 +5320,19 @@
         <v>889544</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>830180</v>
+        <v>829949</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>952715</v>
+        <v>944068</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1275874683407099</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1190728212053108</v>
+        <v>0.1190397232682267</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1366481045031778</v>
+        <v>0.1354078613392329</v>
       </c>
     </row>
     <row r="43">
@@ -5349,19 +5349,19 @@
         <v>418797</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>380448</v>
+        <v>379133</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>459269</v>
+        <v>463513</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1223868939876587</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1111800395615946</v>
+        <v>0.1107956765581987</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1342142430133978</v>
+        <v>0.1354545208101333</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>305</v>
@@ -5370,19 +5370,19 @@
         <v>338011</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>300302</v>
+        <v>301367</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>376614</v>
+        <v>375220</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09521102845455413</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08458916847752938</v>
+        <v>0.08488911660024674</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1060846688492662</v>
+        <v>0.1056919618288282</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>680</v>
@@ -5391,19 +5391,19 @@
         <v>756808</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>704346</v>
+        <v>705490</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>821267</v>
+        <v>818463</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.108549079966968</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1010244780513008</v>
+        <v>0.1011885443001339</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1177944593706553</v>
+        <v>0.1173922787770394</v>
       </c>
     </row>
     <row r="44">
@@ -5420,19 +5420,19 @@
         <v>437211</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>400522</v>
+        <v>400214</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>479456</v>
+        <v>483417</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1277680125355073</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1170462854900911</v>
+        <v>0.116956410852656</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1401134662446232</v>
+        <v>0.1412712425294883</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>283</v>
@@ -5441,19 +5441,19 @@
         <v>314454</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>278740</v>
+        <v>280045</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>347319</v>
+        <v>350872</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08857550843743264</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07851541328302394</v>
+        <v>0.07888325847460236</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09783298808065641</v>
+        <v>0.09883372953771047</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>687</v>
@@ -5462,19 +5462,19 @@
         <v>751665</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>700402</v>
+        <v>703262</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>807438</v>
+        <v>815290</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1078113866074881</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1004587576179483</v>
+        <v>0.1008689632014626</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1158109570490265</v>
+        <v>0.1169372193288615</v>
       </c>
     </row>
     <row r="45">
@@ -7668,19 +7668,19 @@
         <v>907851</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>857714</v>
+        <v>854056</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>964232</v>
+        <v>958094</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2681410285029135</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.253332552586395</v>
+        <v>0.2522522084265846</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2847936374323072</v>
+        <v>0.2829806902311381</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1691</v>
@@ -7689,19 +7689,19 @@
         <v>1820269</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1752635</v>
+        <v>1759526</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1881932</v>
+        <v>1883019</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5154239005327942</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4962727462091353</v>
+        <v>0.4982240028450519</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5328843504776281</v>
+        <v>0.5331921182039104</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2560</v>
@@ -7710,19 +7710,19 @@
         <v>2728120</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2651807</v>
+        <v>2644919</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2810054</v>
+        <v>2812193</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3943898382869567</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3833576119591019</v>
+        <v>0.3823618909791383</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4062345462877515</v>
+        <v>0.4065437657465955</v>
       </c>
     </row>
     <row r="41">
@@ -7739,19 +7739,19 @@
         <v>1149638</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1090515</v>
+        <v>1096972</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1208109</v>
+        <v>1214240</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3395548463066198</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3220922374090041</v>
+        <v>0.3239994680750224</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3568247257959137</v>
+        <v>0.3586354777732511</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>798</v>
@@ -7760,19 +7760,19 @@
         <v>825876</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>774678</v>
+        <v>773341</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>875513</v>
+        <v>877995</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.233853444498928</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2193563818963069</v>
+        <v>0.2189777127565972</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2479084565708612</v>
+        <v>0.2486112684152898</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1901</v>
@@ -7781,19 +7781,19 @@
         <v>1975514</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1898990</v>
+        <v>1897414</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2046864</v>
+        <v>2050701</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2855896199195957</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2745269298797436</v>
+        <v>0.2742991536323392</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2959042928138144</v>
+        <v>0.2964589348693019</v>
       </c>
     </row>
     <row r="42">
@@ -7810,19 +7810,19 @@
         <v>521914</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>484641</v>
+        <v>478074</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>572740</v>
+        <v>567241</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1541513370381617</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1431426615284241</v>
+        <v>0.1412028530383994</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1691634407907166</v>
+        <v>0.1675391202191063</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>153</v>
@@ -7831,19 +7831,19 @@
         <v>166123</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>140538</v>
+        <v>142767</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>192826</v>
+        <v>194517</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04703901046734452</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03979444477532484</v>
+        <v>0.04042556156848659</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05460027393395998</v>
+        <v>0.05507917628416903</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>655</v>
@@ -7852,19 +7852,19 @@
         <v>688036</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>641010</v>
+        <v>636901</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>740844</v>
+        <v>738280</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0994657713466917</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09266746637507041</v>
+        <v>0.09207343305384531</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1070999062697403</v>
+        <v>0.106729190658836</v>
       </c>
     </row>
     <row r="43">
@@ -7881,19 +7881,19 @@
         <v>377227</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>341448</v>
+        <v>342143</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>419734</v>
+        <v>418392</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1114170057615965</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1008493434147549</v>
+        <v>0.1010547689661804</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1239717567323254</v>
+        <v>0.1235754292114226</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>352</v>
@@ -7902,19 +7902,19 @@
         <v>372273</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>338595</v>
+        <v>336227</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>413321</v>
+        <v>409076</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1054122026894796</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09587581258345222</v>
+        <v>0.09520534366992579</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1170351707011684</v>
+        <v>0.1158331182663785</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>706</v>
@@ -7923,19 +7923,19 @@
         <v>749500</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>697117</v>
+        <v>699049</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>802704</v>
+        <v>808555</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1083512890193924</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1007784924853244</v>
+        <v>0.1010578782555595</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.116042719313223</v>
+        <v>0.1168885395986381</v>
       </c>
     </row>
     <row r="44">
@@ -7952,19 +7952,19 @@
         <v>429092</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>386662</v>
+        <v>391963</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>467987</v>
+        <v>472220</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1267357823907085</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1142036646965984</v>
+        <v>0.11576937671983</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1382238316504355</v>
+        <v>0.1394739054912069</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>332</v>
@@ -7973,19 +7973,19 @@
         <v>347055</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>312674</v>
+        <v>314210</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>386823</v>
+        <v>385492</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0982714418114537</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08853612086940575</v>
+        <v>0.08897123456830616</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1095321167272811</v>
+        <v>0.1091552650920433</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>728</v>
@@ -7994,19 +7994,19 @@
         <v>776147</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>725214</v>
+        <v>722548</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>831358</v>
+        <v>833016</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1122034814273635</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1048403966405907</v>
+        <v>0.1044548881301726</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1201850487083593</v>
+        <v>0.1204246610216733</v>
       </c>
     </row>
     <row r="45">
@@ -8791,19 +8791,19 @@
         <v>476543</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>468428</v>
+        <v>467717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>480535</v>
+        <v>480452</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9861983623917642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9694047744620634</v>
+        <v>0.9679338353276109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9944594335738922</v>
+        <v>0.994287928136686</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>565</v>
@@ -8812,19 +8812,19 @@
         <v>405202</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>396539</v>
+        <v>397299</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>411416</v>
+        <v>411522</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9575999312191159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9371282573143901</v>
+        <v>0.9389236214339015</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9722869988823832</v>
+        <v>0.9725370251212282</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1040</v>
@@ -8833,19 +8833,19 @@
         <v>881745</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>872316</v>
+        <v>871246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>889747</v>
+        <v>890067</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9728468370226889</v>
+        <v>0.9728468370226888</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9624443166515024</v>
+        <v>0.9612631369491937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9816764139523636</v>
+        <v>0.9820287325984839</v>
       </c>
     </row>
     <row r="14">
@@ -8862,19 +8862,19 @@
         <v>6669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2677</v>
+        <v>2760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14784</v>
+        <v>15495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01380163760823583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005540566426107854</v>
+        <v>0.00571207186331405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03059522553793667</v>
+        <v>0.03206616467239036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -8883,19 +8883,19 @@
         <v>17941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11727</v>
+        <v>11621</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26604</v>
+        <v>25844</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.042400068780884</v>
+        <v>0.04240006878088399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0277130011176164</v>
+        <v>0.02746297487877184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06287174268560974</v>
+        <v>0.0610763785660984</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -8904,19 +8904,19 @@
         <v>24610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16608</v>
+        <v>16288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34039</v>
+        <v>35109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02715316297731123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01832358604763642</v>
+        <v>0.01797126740151566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03755568334849747</v>
+        <v>0.03873686305080594</v>
       </c>
     </row>
     <row r="15">
@@ -9102,19 +9102,19 @@
         <v>467497</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>459115</v>
+        <v>460590</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>470276</v>
+        <v>470300</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9912752074011133</v>
+        <v>0.9912752074011131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9735009540923039</v>
+        <v>0.9766301499927683</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9971674363012218</v>
+        <v>0.9972185989846024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>270</v>
@@ -9123,19 +9123,19 @@
         <v>172116</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>162121</v>
+        <v>163595</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>178015</v>
+        <v>177873</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9179674515358874</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.864659723200787</v>
+        <v>0.872521622581885</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9494262306811921</v>
+        <v>0.9486731835629834</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>755</v>
@@ -9144,19 +9144,19 @@
         <v>639613</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>628231</v>
+        <v>628467</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>647393</v>
+        <v>646482</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9704212891709254</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9531525564984417</v>
+        <v>0.9535106060878167</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9822240146254593</v>
+        <v>0.9808423523542871</v>
       </c>
     </row>
     <row r="19">
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9868</v>
+        <v>9212</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00585047721310429</v>
+        <v>0.005850477213104289</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02092400073125802</v>
+        <v>0.01953378940720873</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -9194,19 +9194,19 @@
         <v>6074</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2778</v>
+        <v>2892</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11423</v>
+        <v>10995</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03239336537334166</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01481483731127632</v>
+        <v>0.01542221222127205</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06092411764268374</v>
+        <v>0.05864265681390634</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -9215,19 +9215,19 @@
         <v>8833</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4498</v>
+        <v>4558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16629</v>
+        <v>16335</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01340115466535434</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006823827475727418</v>
+        <v>0.006916130715213248</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0252302595551665</v>
+        <v>0.02478410302464314</v>
       </c>
     </row>
     <row r="20">
@@ -9247,16 +9247,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7849</v>
+        <v>6729</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.002874315385782523</v>
+        <v>0.002874315385782522</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0166420677871131</v>
+        <v>0.01426715805320016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -9265,19 +9265,19 @@
         <v>9307</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4675</v>
+        <v>4716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17048</v>
+        <v>18379</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04963918309077092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02493521288275559</v>
+        <v>0.02515233964184284</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09092525186014397</v>
+        <v>0.09802502037758569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -9286,19 +9286,19 @@
         <v>10663</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5447</v>
+        <v>5470</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21309</v>
+        <v>20557</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01617755616372034</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008264669761976977</v>
+        <v>0.008298865870564425</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03232955794543555</v>
+        <v>0.03118860666147593</v>
       </c>
     </row>
     <row r="21">
@@ -9437,19 +9437,19 @@
         <v>1089586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1069193</v>
+        <v>1069226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1104946</v>
+        <v>1105122</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.962665087408624</v>
+        <v>0.9626650874086242</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9446480085084134</v>
+        <v>0.9446768979075201</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9762361053143979</v>
+        <v>0.9763914451773361</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1107</v>
@@ -9458,19 +9458,19 @@
         <v>768212</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>751471</v>
+        <v>748858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>784650</v>
+        <v>783314</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8920142516977427</v>
+        <v>0.8920142516977428</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8725751660942536</v>
+        <v>0.8695401797440622</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9111011799523727</v>
+        <v>0.9095491818227505</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2199</v>
@@ -9479,19 +9479,19 @@
         <v>1857798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1830031</v>
+        <v>1830669</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1879820</v>
+        <v>1879703</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9321364111714648</v>
+        <v>0.9321364111714651</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.918204485863479</v>
+        <v>0.9185247244873672</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9431855445207151</v>
+        <v>0.9431268920657943</v>
       </c>
     </row>
     <row r="24">
@@ -9508,19 +9508,19 @@
         <v>15216</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7677</v>
+        <v>7518</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26569</v>
+        <v>27296</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01344343628865304</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006782425904795377</v>
+        <v>0.006641906615020014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02347450371140171</v>
+        <v>0.02411618780181276</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -9529,19 +9529,19 @@
         <v>40214</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30237</v>
+        <v>30178</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52801</v>
+        <v>53127</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04669488632411308</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03510963801649498</v>
+        <v>0.03504084188834088</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06130984935051643</v>
+        <v>0.06168893584228758</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -9550,19 +9550,19 @@
         <v>55430</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42371</v>
+        <v>42616</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72388</v>
+        <v>72560</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0278115996986761</v>
+        <v>0.02781159969867611</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02125957154707715</v>
+        <v>0.02138225278406702</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03632017850163748</v>
+        <v>0.03640656457146746</v>
       </c>
     </row>
     <row r="25">
@@ -9579,19 +9579,19 @@
         <v>11399</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4164</v>
+        <v>4124</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25657</v>
+        <v>26255</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01007074753479526</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003679297632203809</v>
+        <v>0.003643841375305708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02266839764011253</v>
+        <v>0.02319664450432293</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -9600,19 +9600,19 @@
         <v>23830</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16546</v>
+        <v>16494</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35768</v>
+        <v>36059</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02767084402668876</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01921229975398756</v>
+        <v>0.01915190335904567</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04153218389951081</v>
+        <v>0.04187001543444576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -9621,19 +9621,19 @@
         <v>35229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25066</v>
+        <v>23914</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52335</v>
+        <v>53059</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01767586136165158</v>
+        <v>0.01767586136165159</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01257684888696135</v>
+        <v>0.01199868942042384</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02625888395654328</v>
+        <v>0.02662187213744261</v>
       </c>
     </row>
     <row r="26">
@@ -9650,19 +9650,19 @@
         <v>15643</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6899</v>
+        <v>7309</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29357</v>
+        <v>31539</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01382072876792757</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006095809737124757</v>
+        <v>0.006457911003223269</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02593745790423145</v>
+        <v>0.02786556481935266</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -9671,19 +9671,19 @@
         <v>28954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20271</v>
+        <v>20554</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40377</v>
+        <v>40735</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03362001795145538</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02353778475680561</v>
+        <v>0.02386607450058945</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04688423847513367</v>
+        <v>0.04729930934324046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -9692,19 +9692,19 @@
         <v>44597</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31877</v>
+        <v>32014</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63459</v>
+        <v>61592</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0223761277682074</v>
+        <v>0.02237612776820741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01599382746419006</v>
+        <v>0.01606259193907828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03184000445719467</v>
+        <v>0.03090327132203869</v>
       </c>
     </row>
     <row r="27">
@@ -9796,19 +9796,19 @@
         <v>529425</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>513260</v>
+        <v>509665</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>543344</v>
+        <v>542296</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9321451125083464</v>
+        <v>0.9321451125083462</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9036831921993601</v>
+        <v>0.897355129353714</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9566527803455016</v>
+        <v>0.9548070102781769</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1000</v>
@@ -9817,19 +9817,19 @@
         <v>628468</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>607922</v>
+        <v>604659</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>650826</v>
+        <v>648738</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7564154784001937</v>
+        <v>0.7564154784001939</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7316868716472199</v>
+        <v>0.7277591273870878</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7833252376432207</v>
+        <v>0.7808118792207355</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1521</v>
@@ -9838,19 +9838,19 @@
         <v>1157893</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1126944</v>
+        <v>1129006</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1185260</v>
+        <v>1184056</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8277673965566602</v>
+        <v>0.8277673965566601</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8056424390900673</v>
+        <v>0.8071162816817575</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8473323575846071</v>
+        <v>0.8464710137254663</v>
       </c>
     </row>
     <row r="29">
@@ -9867,19 +9867,19 @@
         <v>30595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18342</v>
+        <v>19829</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47028</v>
+        <v>48661</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05386807019747851</v>
+        <v>0.0538680701974785</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03229466450875665</v>
+        <v>0.03491260011037733</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08280021899575807</v>
+        <v>0.08567694128804039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>201</v>
@@ -9888,19 +9888,19 @@
         <v>141790</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>123670</v>
+        <v>123145</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>162222</v>
+        <v>162764</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.170656993811909</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1488475746314257</v>
+        <v>0.1482159425605053</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1952486144439974</v>
+        <v>0.1959001045832872</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>222</v>
@@ -9909,19 +9909,19 @@
         <v>172386</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>149067</v>
+        <v>149541</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>199011</v>
+        <v>199987</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1232369114700199</v>
+        <v>0.1232369114700198</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1065663519412235</v>
+        <v>0.1069054206519701</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1422712366015744</v>
+        <v>0.1429692540342852</v>
       </c>
     </row>
     <row r="30">
@@ -9938,19 +9938,19 @@
         <v>6967</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2275</v>
+        <v>2320</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19517</v>
+        <v>18070</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01226742872355701</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004005033970532146</v>
+        <v>0.004084757464823207</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03436396505049531</v>
+        <v>0.03181574328962229</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -9959,19 +9959,19 @@
         <v>36833</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>27422</v>
+        <v>27332</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>48374</v>
+        <v>48121</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04433202199958616</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03300531313236291</v>
+        <v>0.03289654772610399</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05822199829190512</v>
+        <v>0.05791740751573782</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -9980,19 +9980,19 @@
         <v>43801</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32243</v>
+        <v>32918</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58028</v>
+        <v>58896</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03131275950147189</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02305053170956817</v>
+        <v>0.02353299730512192</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0414836803628232</v>
+        <v>0.04210395735009195</v>
       </c>
     </row>
     <row r="31">
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4952</v>
+        <v>4569</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001719388570618264</v>
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.008719535843804929</v>
+        <v>0.008045005431906777</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -10030,19 +10030,19 @@
         <v>16803</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10802</v>
+        <v>10766</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24689</v>
+        <v>23905</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02022435354000264</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01300150525589983</v>
+        <v>0.01295829667510341</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0297152242285335</v>
+        <v>0.02877113830407342</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>25</v>
@@ -10051,19 +10051,19 @@
         <v>17780</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12258</v>
+        <v>11576</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27327</v>
+        <v>26366</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01271073893148889</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008763266747764722</v>
+        <v>0.008275251388541651</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01953597337998388</v>
+        <v>0.01884899785866918</v>
       </c>
     </row>
     <row r="32">
@@ -10093,19 +10093,19 @@
         <v>6955</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3975</v>
+        <v>3727</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12397</v>
+        <v>12993</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008371152248308407</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004784367757688588</v>
+        <v>0.004485962809155226</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01492065371707752</v>
+        <v>0.01563807553211793</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -10114,19 +10114,19 @@
         <v>6955</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3651</v>
+        <v>3396</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12703</v>
+        <v>12521</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.00497219354035927</v>
+        <v>0.004972193540359269</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002610035571250152</v>
+        <v>0.00242772070809487</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00908131273867482</v>
+        <v>0.008951308872137662</v>
       </c>
     </row>
     <row r="33">
@@ -10218,19 +10218,19 @@
         <v>51625</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>35040</v>
+        <v>35968</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>74509</v>
+        <v>74812</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2237696292208954</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1518789929649979</v>
+        <v>0.1559005530264069</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3229583932997716</v>
+        <v>0.3242706331119207</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>332</v>
@@ -10239,19 +10239,19 @@
         <v>236532</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>215552</v>
+        <v>213050</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>265821</v>
+        <v>263269</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2879548414674659</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2624134192656086</v>
+        <v>0.2593676574969547</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3236116533262952</v>
+        <v>0.3205038931247223</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>360</v>
@@ -10260,19 +10260,19 @@
         <v>288158</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>253352</v>
+        <v>258355</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>319035</v>
+        <v>322557</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2738804558406021</v>
+        <v>0.273880455840602</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.240799424494922</v>
+        <v>0.2455544988486919</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3032283874872487</v>
+        <v>0.3065758012675227</v>
       </c>
     </row>
     <row r="35">
@@ -10289,19 +10289,19 @@
         <v>71482</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51187</v>
+        <v>53194</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>96598</v>
+        <v>93686</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3098372191314287</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2218698661469559</v>
+        <v>0.2305699803948953</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4187025131857839</v>
+        <v>0.4060803567294656</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>417</v>
@@ -10310,19 +10310,19 @@
         <v>294219</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>269275</v>
+        <v>269042</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>319073</v>
+        <v>321331</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3581829427882006</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3278158524869133</v>
+        <v>0.3275328522128266</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3884402160402972</v>
+        <v>0.3911892992993513</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>451</v>
@@ -10331,19 +10331,19 @@
         <v>365701</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>333455</v>
+        <v>331559</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>400612</v>
+        <v>400632</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3475818037666255</v>
+        <v>0.3475818037666253</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3169332305346529</v>
+        <v>0.3151311910556442</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3807632020837659</v>
+        <v>0.3807826389384531</v>
       </c>
     </row>
     <row r="36">
@@ -10360,19 +10360,19 @@
         <v>34122</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20804</v>
+        <v>19263</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>54610</v>
+        <v>52145</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1479033751424174</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0901737545121762</v>
+        <v>0.08349505823478608</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2367074174423775</v>
+        <v>0.2260199530013764</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>187</v>
@@ -10381,19 +10381,19 @@
         <v>138117</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>118089</v>
+        <v>118643</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>158193</v>
+        <v>160350</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1681438305517373</v>
+        <v>0.1681438305517372</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1437613419464336</v>
+        <v>0.1444366748847861</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1925840387996216</v>
+        <v>0.195210475917671</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>201</v>
@@ -10402,19 +10402,19 @@
         <v>172239</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>149323</v>
+        <v>147952</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>200263</v>
+        <v>202282</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.163705550070561</v>
+        <v>0.1637055500705609</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1419242985928504</v>
+        <v>0.1406218146665638</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1903403091807996</v>
+        <v>0.1922594164942185</v>
       </c>
     </row>
     <row r="37">
@@ -10431,19 +10431,19 @@
         <v>23579</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11016</v>
+        <v>11892</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42303</v>
+        <v>42697</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1022037718739464</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04774849501179509</v>
+        <v>0.05154657205095969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1833615710718964</v>
+        <v>0.1850701238713629</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>101</v>
@@ -10452,19 +10452,19 @@
         <v>74299</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59615</v>
+        <v>60956</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91416</v>
+        <v>92066</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.09045211353025109</v>
+        <v>0.09045211353025108</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07257518764899713</v>
+        <v>0.07420771819842828</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1112898668202743</v>
+        <v>0.1120815539834199</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>111</v>
@@ -10473,19 +10473,19 @@
         <v>97878</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>78776</v>
+        <v>78966</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>122076</v>
+        <v>119345</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.09302899012682506</v>
+        <v>0.09302899012682503</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0748725332307099</v>
+        <v>0.07505324017858553</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1160279592407993</v>
+        <v>0.1134321001168766</v>
       </c>
     </row>
     <row r="38">
@@ -10502,19 +10502,19 @@
         <v>49899</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>32872</v>
+        <v>32805</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>72396</v>
+        <v>72159</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2162860046313123</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1424842039878679</v>
+        <v>0.1421939113084622</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3138013173188463</v>
+        <v>0.3127726905225867</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>93</v>
@@ -10523,19 +10523,19 @@
         <v>78254</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>63644</v>
+        <v>63127</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>100243</v>
+        <v>99256</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.09526627166234522</v>
+        <v>0.09526627166234523</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07748064876408356</v>
+        <v>0.07685105144987546</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1220359547297459</v>
+        <v>0.1208341794700735</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>115</v>
@@ -10544,19 +10544,19 @@
         <v>128153</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>103297</v>
+        <v>103813</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>155544</v>
+        <v>159510</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1218032001953865</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09817882371750727</v>
+        <v>0.09866903150290185</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.147837373304241</v>
+        <v>0.1516071841889349</v>
       </c>
     </row>
     <row r="39">
@@ -10648,19 +10648,19 @@
         <v>581050</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>535965</v>
+        <v>531999</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>635024</v>
+        <v>629503</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1691086685787301</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1559870136318878</v>
+        <v>0.1548328378783217</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1848172893484391</v>
+        <v>0.1832102482950532</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1332</v>
@@ -10669,19 +10669,19 @@
         <v>865000</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>817302</v>
+        <v>816484</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>902586</v>
+        <v>907684</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.2394441565974078</v>
+        <v>0.2394441565974077</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2262405886841473</v>
+        <v>0.2260141409533953</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2498483785101939</v>
+        <v>0.251259705871397</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1881</v>
@@ -10690,19 +10690,19 @@
         <v>1446050</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1385605</v>
+        <v>1378679</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1519381</v>
+        <v>1518583</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2051574228803794</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1965817996206782</v>
+        <v>0.195599177598607</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2155612431728039</v>
+        <v>0.2154479717485782</v>
       </c>
     </row>
     <row r="41">
@@ -10719,19 +10719,19 @@
         <v>1191663</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1127476</v>
+        <v>1133410</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1254043</v>
+        <v>1246469</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3468212453191107</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3281403176884648</v>
+        <v>0.329867232962039</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3649763834505548</v>
+        <v>0.3627718580795313</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1725</v>
@@ -10740,19 +10740,19 @@
         <v>1204222</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1156926</v>
+        <v>1157057</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1258705</v>
+        <v>1258717</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3333456530285098</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3202535299530099</v>
+        <v>0.320289654299469</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3484272621441205</v>
+        <v>0.3484306584106084</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2872</v>
@@ -10761,19 +10761,19 @@
         <v>2395885</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2317331</v>
+        <v>2319510</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2470379</v>
+        <v>2480465</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3399146562097258</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3287698782733104</v>
+        <v>0.3290790091404597</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3504834311358509</v>
+        <v>0.3519143112480679</v>
       </c>
     </row>
     <row r="42">
@@ -10790,19 +10790,19 @@
         <v>523803</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>481021</v>
+        <v>482299</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>571875</v>
+        <v>573851</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1524474193005826</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1399963502620515</v>
+        <v>0.1403681093948136</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1664384678394537</v>
+        <v>0.1670135229738465</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>565</v>
@@ -10811,19 +10811,19 @@
         <v>387281</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>354710</v>
+        <v>356664</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>420017</v>
+        <v>423839</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1072047274341155</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09818865396828494</v>
+        <v>0.09872965181765983</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1162665073417651</v>
+        <v>0.1173245286177904</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1079</v>
@@ -10832,19 +10832,19 @@
         <v>911083</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>861513</v>
+        <v>853831</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>969232</v>
+        <v>961546</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.129259371147616</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.122226568910485</v>
+        <v>0.1211367617398256</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1375091979952231</v>
+        <v>0.1364187712026981</v>
       </c>
     </row>
     <row r="43">
@@ -10861,19 +10861,19 @@
         <v>515256</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>467868</v>
+        <v>470643</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>562302</v>
+        <v>560770</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1499600853809993</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1361682924136791</v>
+        <v>0.1369757002067491</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1636522671328382</v>
+        <v>0.1632062578062973</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>732</v>
@@ -10882,19 +10882,19 @@
         <v>526208</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>491587</v>
+        <v>491556</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>567818</v>
+        <v>565304</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1456618377594695</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1360782854503277</v>
+        <v>0.1360696370582437</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1571799509071309</v>
+        <v>0.1564840061397565</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1227</v>
@@ -10903,19 +10903,19 @@
         <v>1041465</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>982320</v>
+        <v>989843</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1100956</v>
+        <v>1101871</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1477571224557256</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1393659508228693</v>
+        <v>0.1404333397413269</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.156197356379542</v>
+        <v>0.1563272488722782</v>
       </c>
     </row>
     <row r="44">
@@ -10932,19 +10932,19 @@
         <v>624185</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>570901</v>
+        <v>571436</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>674514</v>
+        <v>677326</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1816625814205773</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1661549438551166</v>
+        <v>0.1663106918117853</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1963104831583846</v>
+        <v>0.1971287359277552</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>861</v>
@@ -10953,19 +10953,19 @@
         <v>629822</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>584615</v>
+        <v>588699</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>674799</v>
+        <v>668504</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1743436251804974</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1618296545465124</v>
+        <v>0.162960204813738</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1867939965714747</v>
+        <v>0.1850513685548913</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1452</v>
@@ -10974,19 +10974,19 @@
         <v>1254007</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1186079</v>
+        <v>1189110</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1323259</v>
+        <v>1316785</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.1779114273065531</v>
+        <v>0.177911427306553</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1682741646717794</v>
+        <v>0.1687042787465661</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1877365855919539</v>
+        <v>0.1868179771868176</v>
       </c>
     </row>
     <row r="45">
